--- a/data/georgia_census/imereti/tyibuli/population_total.xlsx
+++ b/data/georgia_census/imereti/tyibuli/population_total.xlsx
@@ -1367,13 +1367,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D1DD92B-93C2-4FDF-9ECF-2F017972DDF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5393FE3E-C670-4909-9216-97631D4CDEC9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2424068-E3F1-4400-AB3A-73A3B6A7D2EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FBDEA28-D611-476D-8BF8-50A850DB85B5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC484E39-4BA8-4244-9663-A75EDBC992BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BB518E0-C11C-4506-87F3-14E8C6F9E1DF}"/>
 </file>